--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14C9F131-E12C-4D97-A55C-50FD9ED56D97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{127FF949-07D3-45B2-88C9-7F94DAC76EDA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E6CFF-ADE9-40EB-AEF6-EA015A500784}">
-  <dimension ref="E1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="E8:H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,12 +473,13 @@
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
     <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
@@ -497,8 +497,9 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="3"/>
       <c r="F2" s="4">
         <v>19</v>
@@ -528,10 +529,13 @@
         <v>20</v>
       </c>
       <c r="O2" s="4">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -544,9 +548,10 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="O3" s="3"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -560,8 +565,9 @@
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -574,9 +580,10 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="O5" s="6"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -590,8 +597,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="8" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
@@ -601,7 +609,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="4">
         <v>6</v>
@@ -613,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
@@ -621,7 +629,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
@@ -629,7 +637,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
@@ -640,7 +648,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H1:P1"/>
     <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C46D576D-5B2C-40E1-8CCA-0BB3889BA41C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -143,6 +144,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:P6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +595,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>

--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Plan Formacion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C46D576D-5B2C-40E1-8CCA-0BB3889BA41C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Taller Be Ágile</t>
   </si>
@@ -55,13 +55,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lideres, vicepresidentes, presidente</t>
+  </si>
+  <si>
+    <t>Lideres, gerentes,</t>
+  </si>
+  <si>
+    <t>Sponssor, areas de negocio</t>
+  </si>
+  <si>
+    <t>project manager</t>
+  </si>
+  <si>
+    <t>project manager de celulas priorizadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +94,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -143,11 +165,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,21 +518,21 @@
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="3"/>
@@ -595,7 +626,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
@@ -609,11 +640,11 @@
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="5:16" ht="21" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
@@ -660,4 +691,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>